--- a/DateBase/orders/Dang Nguyen_2024-11-12.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-12.xlsx
@@ -877,6 +877,9 @@
       <c r="G2" t="str">
         <v>015015015015036106085103010151212201751515101081210251052510162081010101010703110155</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
